--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1771696.157713042</v>
+        <v>1769265.506431684</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -1370,19 +1370,19 @@
         <v>341.1569118905546</v>
       </c>
       <c r="C11" t="n">
-        <v>143.3701407323449</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>313.106111847757</v>
+        <v>313.1061118477569</v>
       </c>
       <c r="E11" t="n">
         <v>340.3534402993358</v>
       </c>
       <c r="F11" t="n">
-        <v>365.2991159687855</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>369.3447958805275</v>
+        <v>272.830807474889</v>
       </c>
       <c r="H11" t="n">
         <v>253.0308346143945</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>67.61083201524983</v>
       </c>
       <c r="T11" t="n">
-        <v>162.3410403666942</v>
+        <v>162.3410403666941</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>209.418242185976</v>
       </c>
       <c r="V11" t="n">
-        <v>286.175328697209</v>
+        <v>286.1753286972089</v>
       </c>
       <c r="W11" t="n">
-        <v>307.6640389444871</v>
+        <v>307.664038944487</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>328.154170905543</v>
       </c>
       <c r="Y11" t="n">
         <v>344.6610088831276</v>
@@ -1528,25 +1528,25 @@
         <v>138.2550504090113</v>
       </c>
       <c r="C13" t="n">
-        <v>125.6698913257019</v>
+        <v>125.6698913257018</v>
       </c>
       <c r="D13" t="n">
-        <v>107.0385432452864</v>
+        <v>107.0385432452863</v>
       </c>
       <c r="E13" t="n">
         <v>104.8570328736432</v>
       </c>
       <c r="F13" t="n">
-        <v>103.8441182500053</v>
+        <v>103.8441182500052</v>
       </c>
       <c r="G13" t="n">
-        <v>124.4488784861022</v>
+        <v>98.92939386132964</v>
       </c>
       <c r="H13" t="n">
-        <v>76.61122890925969</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>54.77549063691209</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>47.35522289712132</v>
       </c>
       <c r="S13" t="n">
         <v>148.1920955585159</v>
@@ -1591,7 +1591,7 @@
         <v>244.946068563665</v>
       </c>
       <c r="X13" t="n">
-        <v>184.1327256161112</v>
+        <v>184.1327256161111</v>
       </c>
       <c r="Y13" t="n">
         <v>177.0077235791688</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>341.1569118905546</v>
+        <v>341.1569118905545</v>
       </c>
       <c r="C14" t="n">
-        <v>323.6959619980816</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>340.3534402993358</v>
+        <v>340.3534402993357</v>
       </c>
       <c r="F14" t="n">
-        <v>365.2991159687855</v>
+        <v>365.2991159687854</v>
       </c>
       <c r="G14" t="n">
-        <v>369.3447958805275</v>
+        <v>369.3447958805274</v>
       </c>
       <c r="H14" t="n">
-        <v>253.0308346143945</v>
+        <v>253.0308346143944</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.61083201524988</v>
+        <v>67.6108320152498</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>162.3410403666941</v>
       </c>
       <c r="U14" t="n">
-        <v>207.0203669724085</v>
+        <v>209.4182421859759</v>
       </c>
       <c r="V14" t="n">
-        <v>286.175328697209</v>
+        <v>286.1753286972089</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>158.9570464178211</v>
       </c>
       <c r="X14" t="n">
-        <v>328.1541709055431</v>
+        <v>328.154170905543</v>
       </c>
       <c r="Y14" t="n">
         <v>344.6610088831276</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>138.2550504090113</v>
       </c>
       <c r="C16" t="n">
-        <v>125.6698913257019</v>
+        <v>125.6698913257018</v>
       </c>
       <c r="D16" t="n">
-        <v>107.0385432452864</v>
+        <v>82.18509172912484</v>
       </c>
       <c r="E16" t="n">
-        <v>79.33754824886923</v>
+        <v>104.8570328736431</v>
       </c>
       <c r="F16" t="n">
-        <v>103.8441182500053</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>124.4488784861023</v>
+        <v>124.4488784861022</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>103.1780851413947</v>
       </c>
       <c r="I16" t="n">
-        <v>54.77549063691215</v>
+        <v>54.77549063691205</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.35522289712138</v>
+        <v>47.35522289712129</v>
       </c>
       <c r="S16" t="n">
         <v>148.1920955585159</v>
@@ -1819,16 +1819,16 @@
         <v>177.9720195032432</v>
       </c>
       <c r="U16" t="n">
-        <v>244.6349084326869</v>
+        <v>244.6349084326868</v>
       </c>
       <c r="V16" t="n">
-        <v>210.5607135509021</v>
+        <v>210.560713550902</v>
       </c>
       <c r="W16" t="n">
-        <v>244.9460685636651</v>
+        <v>244.946068563665</v>
       </c>
       <c r="X16" t="n">
-        <v>184.1327256161112</v>
+        <v>184.1327256161111</v>
       </c>
       <c r="Y16" t="n">
         <v>177.0077235791688</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>313.1241297879597</v>
       </c>
       <c r="C17" t="n">
         <v>295.6631798954867</v>
       </c>
       <c r="D17" t="n">
-        <v>285.073329745162</v>
+        <v>285.0733297451621</v>
       </c>
       <c r="E17" t="n">
         <v>312.3206581967409</v>
       </c>
       <c r="F17" t="n">
-        <v>337.2663338661905</v>
+        <v>285.5282307079456</v>
       </c>
       <c r="G17" t="n">
-        <v>341.3120137779325</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>224.9980525117996</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>39.57804991265493</v>
+        <v>39.57804991265499</v>
       </c>
       <c r="T17" t="n">
-        <v>134.3082582640992</v>
+        <v>134.3082582640993</v>
       </c>
       <c r="U17" t="n">
-        <v>101.4594729351646</v>
+        <v>181.3854600833811</v>
       </c>
       <c r="V17" t="n">
         <v>258.142546594614</v>
@@ -1907,7 +1907,7 @@
         <v>279.6312568418921</v>
       </c>
       <c r="X17" t="n">
-        <v>300.1213888029481</v>
+        <v>300.1213888029482</v>
       </c>
       <c r="Y17" t="n">
         <v>316.6282267805327</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>110.2222683064164</v>
       </c>
       <c r="C19" t="n">
-        <v>97.63710922310693</v>
+        <v>97.63710922310698</v>
       </c>
       <c r="D19" t="n">
-        <v>79.00576114269145</v>
+        <v>79.0057611426915</v>
       </c>
       <c r="E19" t="n">
-        <v>76.82425077104827</v>
+        <v>76.82425077104831</v>
       </c>
       <c r="F19" t="n">
-        <v>75.81133614741034</v>
+        <v>75.81133614741039</v>
       </c>
       <c r="G19" t="n">
-        <v>96.41609638350732</v>
+        <v>96.41609638350737</v>
       </c>
       <c r="H19" t="n">
-        <v>75.14530303879988</v>
+        <v>75.14530303879992</v>
       </c>
       <c r="I19" t="n">
-        <v>26.7427085343172</v>
+        <v>26.74270853431724</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.32244079452643</v>
+        <v>19.32244079452647</v>
       </c>
       <c r="S19" t="n">
         <v>120.159313455921</v>
@@ -2056,7 +2056,7 @@
         <v>149.9392374006483</v>
       </c>
       <c r="U19" t="n">
-        <v>216.6021263300919</v>
+        <v>216.602126330092</v>
       </c>
       <c r="V19" t="n">
         <v>182.5279314483071</v>
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>313.1241297879596</v>
+        <v>313.1241297879598</v>
       </c>
       <c r="C20" t="n">
-        <v>36.921321223409</v>
+        <v>295.6631798954867</v>
       </c>
       <c r="D20" t="n">
-        <v>285.073329745162</v>
+        <v>233.3352265869173</v>
       </c>
       <c r="E20" t="n">
-        <v>312.3206581967409</v>
+        <v>312.320658196741</v>
       </c>
       <c r="F20" t="n">
-        <v>337.2663338661905</v>
+        <v>337.2663338661906</v>
       </c>
       <c r="G20" t="n">
-        <v>341.3120137779325</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>224.9980525117996</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>39.57804991265493</v>
+        <v>39.57804991265499</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>134.3082582640993</v>
       </c>
       <c r="U20" t="n">
         <v>181.3854600833811</v>
@@ -2141,10 +2141,10 @@
         <v>258.142546594614</v>
       </c>
       <c r="W20" t="n">
-        <v>279.6312568418921</v>
+        <v>279.6312568418922</v>
       </c>
       <c r="X20" t="n">
-        <v>300.1213888029481</v>
+        <v>300.1213888029482</v>
       </c>
       <c r="Y20" t="n">
         <v>316.6282267805327</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.2222683064164</v>
+        <v>110.2222683064165</v>
       </c>
       <c r="C22" t="n">
-        <v>97.63710922310693</v>
+        <v>97.63710922310699</v>
       </c>
       <c r="D22" t="n">
-        <v>79.00576114269145</v>
+        <v>79.00576114269151</v>
       </c>
       <c r="E22" t="n">
-        <v>76.82425077104827</v>
+        <v>76.82425077104833</v>
       </c>
       <c r="F22" t="n">
-        <v>75.81133614741034</v>
+        <v>75.8113361474104</v>
       </c>
       <c r="G22" t="n">
-        <v>96.41609638350732</v>
+        <v>96.41609638350738</v>
       </c>
       <c r="H22" t="n">
-        <v>75.14530303879988</v>
+        <v>75.14530303879994</v>
       </c>
       <c r="I22" t="n">
-        <v>26.7427085343172</v>
+        <v>26.74270853431725</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.32244079452643</v>
+        <v>19.32244079452649</v>
       </c>
       <c r="S22" t="n">
-        <v>120.159313455921</v>
+        <v>120.1593134559211</v>
       </c>
       <c r="T22" t="n">
-        <v>149.9392374006483</v>
+        <v>149.9392374006484</v>
       </c>
       <c r="U22" t="n">
-        <v>216.6021263300919</v>
+        <v>216.602126330092</v>
       </c>
       <c r="V22" t="n">
-        <v>182.5279314483071</v>
+        <v>182.5279314483072</v>
       </c>
       <c r="W22" t="n">
-        <v>216.9132864610701</v>
+        <v>216.9132864610702</v>
       </c>
       <c r="X22" t="n">
         <v>156.0999435135163</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>313.1241297879596</v>
+        <v>313.1241297879598</v>
       </c>
       <c r="C23" t="n">
         <v>295.6631798954867</v>
       </c>
       <c r="D23" t="n">
-        <v>285.073329745162</v>
+        <v>285.0733297451621</v>
       </c>
       <c r="E23" t="n">
-        <v>312.3206581967409</v>
+        <v>312.320658196741</v>
       </c>
       <c r="F23" t="n">
-        <v>337.2663338661905</v>
+        <v>337.2663338661906</v>
       </c>
       <c r="G23" t="n">
-        <v>341.3120137779325</v>
+        <v>341.3120137779326</v>
       </c>
       <c r="H23" t="n">
-        <v>224.9980525117996</v>
+        <v>224.9980525117997</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>39.57804991265493</v>
+        <v>39.578049912655</v>
       </c>
       <c r="T23" t="n">
-        <v>134.3082582640992</v>
+        <v>134.3082582640993</v>
       </c>
       <c r="U23" t="n">
         <v>181.3854600833811</v>
@@ -2378,10 +2378,10 @@
         <v>258.142546594614</v>
       </c>
       <c r="W23" t="n">
-        <v>279.6312568418921</v>
+        <v>279.6312568418922</v>
       </c>
       <c r="X23" t="n">
-        <v>300.1213888029481</v>
+        <v>300.1213888029482</v>
       </c>
       <c r="Y23" t="n">
         <v>316.6282267805327</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>110.2222683064164</v>
+        <v>110.2222683064165</v>
       </c>
       <c r="C25" t="n">
-        <v>97.63710922310693</v>
+        <v>97.63710922310699</v>
       </c>
       <c r="D25" t="n">
-        <v>79.00576114269145</v>
+        <v>79.00576114269151</v>
       </c>
       <c r="E25" t="n">
-        <v>76.82425077104827</v>
+        <v>76.82425077104833</v>
       </c>
       <c r="F25" t="n">
-        <v>75.81133614741034</v>
+        <v>75.8113361474104</v>
       </c>
       <c r="G25" t="n">
-        <v>96.41609638350732</v>
+        <v>96.41609638350738</v>
       </c>
       <c r="H25" t="n">
-        <v>75.14530303879988</v>
+        <v>75.14530303879994</v>
       </c>
       <c r="I25" t="n">
-        <v>26.7427085343172</v>
+        <v>26.74270853431727</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.32244079452643</v>
+        <v>19.3224407945265</v>
       </c>
       <c r="S25" t="n">
-        <v>120.159313455921</v>
+        <v>120.1593134559211</v>
       </c>
       <c r="T25" t="n">
-        <v>149.9392374006483</v>
+        <v>149.9392374006484</v>
       </c>
       <c r="U25" t="n">
-        <v>216.6021263300919</v>
+        <v>216.602126330092</v>
       </c>
       <c r="V25" t="n">
-        <v>182.5279314483071</v>
+        <v>182.5279314483072</v>
       </c>
       <c r="W25" t="n">
-        <v>216.9132864610701</v>
+        <v>216.9132864610702</v>
       </c>
       <c r="X25" t="n">
         <v>156.0999435135163</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448873</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348615</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2776,7 +2776,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
         <v>171.6095167335022</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958324</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3205,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C37" t="n">
-        <v>120.5216066929738</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092333</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621589</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>92.084305103337</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
-        <v>188.527117977508</v>
+        <v>239.4866237999591</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3512,7 +3512,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3560,13 +3560,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383236</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>121.853906511241</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482631</v>
+        <v>98.69583361727746</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>303.9914759513733</v>
+        <v>303.9914759513734</v>
       </c>
       <c r="C41" t="n">
-        <v>286.5305260589003</v>
+        <v>286.5305260589004</v>
       </c>
       <c r="D41" t="n">
-        <v>275.9406759085757</v>
+        <v>275.9406759085758</v>
       </c>
       <c r="E41" t="n">
-        <v>303.1880043601545</v>
+        <v>303.1880043601546</v>
       </c>
       <c r="F41" t="n">
-        <v>328.1336800296041</v>
+        <v>328.1336800296042</v>
       </c>
       <c r="G41" t="n">
-        <v>332.1793599413461</v>
+        <v>332.1793599413463</v>
       </c>
       <c r="H41" t="n">
-        <v>215.8653986752132</v>
+        <v>215.8653986752133</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>30.44539607606853</v>
+        <v>30.44539607606865</v>
       </c>
       <c r="T41" t="n">
-        <v>125.1756044275129</v>
+        <v>125.175604427513</v>
       </c>
       <c r="U41" t="n">
-        <v>172.2528062467947</v>
+        <v>172.2528062467948</v>
       </c>
       <c r="V41" t="n">
-        <v>249.0098927580276</v>
+        <v>249.0098927580277</v>
       </c>
       <c r="W41" t="n">
-        <v>5.305639781337761</v>
+        <v>270.4986030053058</v>
       </c>
       <c r="X41" t="n">
-        <v>290.9887349663617</v>
+        <v>290.9887349663618</v>
       </c>
       <c r="Y41" t="n">
-        <v>307.4955729439463</v>
+        <v>42.30260971997689</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>101.08961446983</v>
+        <v>162.3002630548966</v>
       </c>
       <c r="C43" t="n">
-        <v>88.50445538652053</v>
+        <v>88.50445538652063</v>
       </c>
       <c r="D43" t="n">
-        <v>69.87310730610506</v>
+        <v>69.87310730610515</v>
       </c>
       <c r="E43" t="n">
-        <v>67.69159693446187</v>
+        <v>67.69159693446197</v>
       </c>
       <c r="F43" t="n">
-        <v>66.67868231082394</v>
+        <v>66.67868231082404</v>
       </c>
       <c r="G43" t="n">
-        <v>87.28344254692092</v>
+        <v>87.28344254692102</v>
       </c>
       <c r="H43" t="n">
-        <v>66.01264920221348</v>
+        <v>66.01264920221358</v>
       </c>
       <c r="I43" t="n">
-        <v>17.6100546977308</v>
+        <v>17.61005469773091</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.18978695794003</v>
+        <v>10.18978695794014</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>111.0266596193347</v>
       </c>
       <c r="T43" t="n">
-        <v>140.8065835640619</v>
+        <v>140.806583564062</v>
       </c>
       <c r="U43" t="n">
-        <v>207.4694724935055</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>173.3952776117207</v>
+        <v>173.3952776117208</v>
       </c>
       <c r="W43" t="n">
-        <v>268.9912812095524</v>
+        <v>207.7806326244838</v>
       </c>
       <c r="X43" t="n">
-        <v>146.9672896769299</v>
+        <v>146.96728967693</v>
       </c>
       <c r="Y43" t="n">
-        <v>139.8422876399875</v>
+        <v>139.8422876399876</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>303.9914759513733</v>
+        <v>303.9914759513734</v>
       </c>
       <c r="C44" t="n">
-        <v>286.5305260589003</v>
+        <v>286.5305260589004</v>
       </c>
       <c r="D44" t="n">
-        <v>275.9406759085757</v>
+        <v>275.9406759085758</v>
       </c>
       <c r="E44" t="n">
-        <v>303.1880043601545</v>
+        <v>37.99504113618486</v>
       </c>
       <c r="F44" t="n">
-        <v>328.1336800296041</v>
+        <v>328.1336800296042</v>
       </c>
       <c r="G44" t="n">
-        <v>332.1793599413461</v>
+        <v>332.1793599413463</v>
       </c>
       <c r="H44" t="n">
-        <v>215.8653986752132</v>
+        <v>215.8653986752133</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>30.44539607606853</v>
+        <v>30.44539607606863</v>
       </c>
       <c r="T44" t="n">
-        <v>125.1756044275129</v>
+        <v>125.175604427513</v>
       </c>
       <c r="U44" t="n">
-        <v>172.2528062467947</v>
+        <v>172.2528062467948</v>
       </c>
       <c r="V44" t="n">
-        <v>249.0098927580276</v>
+        <v>249.0098927580277</v>
       </c>
       <c r="W44" t="n">
-        <v>270.4986030053057</v>
+        <v>270.4986030053058</v>
       </c>
       <c r="X44" t="n">
-        <v>25.79577174239361</v>
+        <v>290.9887349663618</v>
       </c>
       <c r="Y44" t="n">
-        <v>307.4955729439463</v>
+        <v>307.4955729439464</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>101.08961446983</v>
+        <v>101.0896144698301</v>
       </c>
       <c r="C46" t="n">
-        <v>88.50445538652053</v>
+        <v>88.50445538652063</v>
       </c>
       <c r="D46" t="n">
-        <v>69.87310730610506</v>
+        <v>69.87310730610515</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>67.69159693446197</v>
       </c>
       <c r="F46" t="n">
-        <v>127.8893308958924</v>
+        <v>66.67868231082404</v>
       </c>
       <c r="G46" t="n">
-        <v>87.28344254692092</v>
+        <v>87.28344254692102</v>
       </c>
       <c r="H46" t="n">
-        <v>66.01264920221348</v>
+        <v>66.01264920221358</v>
       </c>
       <c r="I46" t="n">
-        <v>17.6100546977308</v>
+        <v>17.61005469773091</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.18978695794003</v>
+        <v>10.18978695794014</v>
       </c>
       <c r="S46" t="n">
-        <v>111.0266596193346</v>
+        <v>111.0266596193347</v>
       </c>
       <c r="T46" t="n">
-        <v>140.8065835640619</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>207.4694724935055</v>
+        <v>268.6801210785721</v>
       </c>
       <c r="V46" t="n">
-        <v>173.3952776117207</v>
+        <v>173.3952776117208</v>
       </c>
       <c r="W46" t="n">
-        <v>207.7806326244837</v>
+        <v>207.7806326244838</v>
       </c>
       <c r="X46" t="n">
-        <v>146.9672896769299</v>
+        <v>146.96728967693</v>
       </c>
       <c r="Y46" t="n">
-        <v>139.8422876399875</v>
+        <v>139.8422876399876</v>
       </c>
     </row>
   </sheetData>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1869.041853142431</v>
+        <v>1257.745645963877</v>
       </c>
       <c r="C11" t="n">
-        <v>1724.223529170366</v>
+        <v>1257.745645963877</v>
       </c>
       <c r="D11" t="n">
-        <v>1407.954729324146</v>
+        <v>941.4768461176578</v>
       </c>
       <c r="E11" t="n">
-        <v>1064.163375486434</v>
+        <v>597.6854922799449</v>
       </c>
       <c r="F11" t="n">
-        <v>695.1743694573572</v>
+        <v>597.6854922799449</v>
       </c>
       <c r="G11" t="n">
         <v>322.0988180628849</v>
@@ -5036,16 +5036,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3257.312051896798</v>
       </c>
       <c r="T11" t="n">
-        <v>3161.624972753924</v>
+        <v>3093.331203041551</v>
       </c>
       <c r="U11" t="n">
-        <v>3161.624972753924</v>
+        <v>2881.797625075918</v>
       </c>
       <c r="V11" t="n">
-        <v>2872.558984170885</v>
+        <v>2592.731636492879</v>
       </c>
       <c r="W11" t="n">
-        <v>2561.787227661302</v>
+        <v>2281.959879983297</v>
       </c>
       <c r="X11" t="n">
-        <v>2561.787227661302</v>
+        <v>1950.491020482748</v>
       </c>
       <c r="Y11" t="n">
-        <v>2213.644794446022</v>
+        <v>1602.348587267468</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,7 +5121,7 @@
         <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
         <v>765.1517452158135</v>
@@ -5136,22 +5136,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>715.4714023816775</v>
+        <v>667.6378438997381</v>
       </c>
       <c r="C13" t="n">
-        <v>588.5321182143019</v>
+        <v>540.6985597323625</v>
       </c>
       <c r="D13" t="n">
-        <v>480.4123775624975</v>
+        <v>432.578819080558</v>
       </c>
       <c r="E13" t="n">
-        <v>374.4961827406356</v>
+        <v>326.6626242586963</v>
       </c>
       <c r="F13" t="n">
-        <v>269.6031340032566</v>
+        <v>221.7695755213172</v>
       </c>
       <c r="G13" t="n">
-        <v>143.8971961385063</v>
+        <v>121.8408948533067</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>121.8408948533067</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>152.7959093543157</v>
+        <v>152.7959093543159</v>
       </c>
       <c r="K13" t="n">
-        <v>397.9442527783885</v>
+        <v>397.944252778389</v>
       </c>
       <c r="L13" t="n">
-        <v>755.6652117020814</v>
+        <v>755.6652117020819</v>
       </c>
       <c r="M13" t="n">
-        <v>1140.983417776827</v>
+        <v>1140.983417776828</v>
       </c>
       <c r="N13" t="n">
         <v>1523.552954957889</v>
@@ -5215,34 +5215,34 @@
         <v>1864.043714353499</v>
       </c>
       <c r="P13" t="n">
-        <v>2137.812375262355</v>
+        <v>2137.812375262356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2256.583831890066</v>
+        <v>2256.583831890067</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.583831890066</v>
+        <v>2208.750273408126</v>
       </c>
       <c r="S13" t="n">
-        <v>2106.894846477423</v>
+        <v>2059.061287995484</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.125129807481</v>
+        <v>1879.291571325541</v>
       </c>
       <c r="U13" t="n">
-        <v>1680.019161693656</v>
+        <v>1632.185603211716</v>
       </c>
       <c r="V13" t="n">
-        <v>1467.3315722483</v>
+        <v>1419.498013766361</v>
       </c>
       <c r="W13" t="n">
-        <v>1219.911300971871</v>
+        <v>1172.077742489931</v>
       </c>
       <c r="X13" t="n">
-        <v>1033.918648834385</v>
+        <v>986.0850903524454</v>
       </c>
       <c r="Y13" t="n">
-        <v>855.122968451386</v>
+        <v>807.2894099694465</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1734.920347504026</v>
+        <v>1407.954729324146</v>
       </c>
       <c r="C14" t="n">
         <v>1407.954729324146</v>
@@ -5264,40 +5264,40 @@
         <v>1064.163375486433</v>
       </c>
       <c r="F14" t="n">
-        <v>695.1743694573571</v>
+        <v>695.1743694573565</v>
       </c>
       <c r="G14" t="n">
-        <v>322.098818062885</v>
+        <v>322.0988180628848</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5306,22 +5306,22 @@
         <v>3257.312051896797</v>
       </c>
       <c r="T14" t="n">
-        <v>3257.312051896797</v>
+        <v>3093.33120304155</v>
       </c>
       <c r="U14" t="n">
-        <v>3048.200570106485</v>
+        <v>2881.797625075918</v>
       </c>
       <c r="V14" t="n">
-        <v>2759.134581523446</v>
+        <v>2592.731636492879</v>
       </c>
       <c r="W14" t="n">
-        <v>2759.134581523446</v>
+        <v>2432.168963343565</v>
       </c>
       <c r="X14" t="n">
-        <v>2427.665722022898</v>
+        <v>2100.700103843017</v>
       </c>
       <c r="Y14" t="n">
-        <v>2079.523288807617</v>
+        <v>1752.557670627736</v>
       </c>
     </row>
     <row r="15">
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>667.6378438997361</v>
+        <v>667.6378438997378</v>
       </c>
       <c r="C16" t="n">
-        <v>540.6985597323605</v>
+        <v>540.6985597323622</v>
       </c>
       <c r="D16" t="n">
-        <v>432.5788190805562</v>
+        <v>457.6833155615291</v>
       </c>
       <c r="E16" t="n">
-        <v>352.4398814554357</v>
+        <v>351.7671207396673</v>
       </c>
       <c r="F16" t="n">
-        <v>247.5468327180566</v>
+        <v>351.7671207396673</v>
       </c>
       <c r="G16" t="n">
-        <v>121.8408948533068</v>
+        <v>226.0611828749176</v>
       </c>
       <c r="H16" t="n">
-        <v>121.8408948533068</v>
+        <v>121.8408948533067</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>152.7959093543157</v>
+        <v>152.7959093543158</v>
       </c>
       <c r="K16" t="n">
-        <v>397.9442527783887</v>
+        <v>397.9442527783889</v>
       </c>
       <c r="L16" t="n">
-        <v>755.6652117020815</v>
+        <v>755.6652117020817</v>
       </c>
       <c r="M16" t="n">
-        <v>1140.983417776827</v>
+        <v>1140.983417776828</v>
       </c>
       <c r="N16" t="n">
         <v>1523.552954957889</v>
@@ -5458,28 +5458,28 @@
         <v>2256.583831890066</v>
       </c>
       <c r="R16" t="n">
-        <v>2208.750273408125</v>
+        <v>2208.750273408126</v>
       </c>
       <c r="S16" t="n">
-        <v>2059.061287995482</v>
+        <v>2059.061287995483</v>
       </c>
       <c r="T16" t="n">
-        <v>1879.29157132554</v>
+        <v>1879.291571325541</v>
       </c>
       <c r="U16" t="n">
-        <v>1632.185603211715</v>
+        <v>1632.185603211716</v>
       </c>
       <c r="V16" t="n">
-        <v>1419.498013766359</v>
+        <v>1419.49801376636</v>
       </c>
       <c r="W16" t="n">
-        <v>1172.07774248993</v>
+        <v>1172.077742489931</v>
       </c>
       <c r="X16" t="n">
-        <v>986.0850903524434</v>
+        <v>986.0850903524449</v>
       </c>
       <c r="Y16" t="n">
-        <v>807.2894099694446</v>
+        <v>807.2894099694462</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1881.29349824361</v>
+        <v>1484.273178106058</v>
       </c>
       <c r="C17" t="n">
-        <v>1582.643821581502</v>
+        <v>1185.62350144395</v>
       </c>
       <c r="D17" t="n">
-        <v>1294.690963253056</v>
+        <v>897.6706431155033</v>
       </c>
       <c r="E17" t="n">
-        <v>979.2155509331155</v>
+        <v>582.1952307955629</v>
       </c>
       <c r="F17" t="n">
-        <v>638.542486421812</v>
+        <v>293.7828765451123</v>
       </c>
       <c r="G17" t="n">
         <v>293.7828765451123</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5528,7 +5528,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296687</v>
@@ -5543,22 +5543,22 @@
         <v>3285.62799341457</v>
       </c>
       <c r="T17" t="n">
-        <v>3149.963086077097</v>
+        <v>3149.963086077096</v>
       </c>
       <c r="U17" t="n">
-        <v>3047.47876998097</v>
+        <v>2966.745449629236</v>
       </c>
       <c r="V17" t="n">
-        <v>2786.728722915704</v>
+        <v>2705.995402563969</v>
       </c>
       <c r="W17" t="n">
-        <v>2504.272907923893</v>
+        <v>2423.539587572159</v>
       </c>
       <c r="X17" t="n">
-        <v>2201.119989941118</v>
+        <v>2120.386669589383</v>
       </c>
       <c r="Y17" t="n">
-        <v>1881.29349824361</v>
+        <v>1800.560177891876</v>
       </c>
     </row>
     <row r="18">
@@ -5589,10 +5589,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>599.4237984936798</v>
+        <v>599.4237984936801</v>
       </c>
       <c r="C19" t="n">
-        <v>500.8004558440769</v>
+        <v>500.8004558440771</v>
       </c>
       <c r="D19" t="n">
-        <v>420.9966567100451</v>
+        <v>420.9966567100453</v>
       </c>
       <c r="E19" t="n">
-        <v>343.3964034059559</v>
+        <v>343.3964034059561</v>
       </c>
       <c r="F19" t="n">
-        <v>266.8192961863495</v>
+        <v>266.8192961863496</v>
       </c>
       <c r="G19" t="n">
-        <v>169.4292998393724</v>
+        <v>169.4292998393725</v>
       </c>
       <c r="H19" t="n">
-        <v>93.52495333553414</v>
+        <v>93.52495333553416</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5698,10 +5698,10 @@
         <v>1914.008695859887</v>
       </c>
       <c r="S19" t="n">
-        <v>1792.635651965017</v>
+        <v>1792.635651965018</v>
       </c>
       <c r="T19" t="n">
-        <v>1641.181876812847</v>
+        <v>1641.181876812848</v>
       </c>
       <c r="U19" t="n">
         <v>1422.391850216795</v>
@@ -5713,10 +5713,10 @@
         <v>1018.915872530555</v>
       </c>
       <c r="X19" t="n">
-        <v>861.2391619108417</v>
+        <v>861.2391619108421</v>
       </c>
       <c r="Y19" t="n">
-        <v>710.7594230456156</v>
+        <v>710.7594230456159</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1619.938085443532</v>
+        <v>1484.273178106057</v>
       </c>
       <c r="C20" t="n">
-        <v>1582.643821581503</v>
+        <v>1185.62350144395</v>
       </c>
       <c r="D20" t="n">
-        <v>1294.690963253056</v>
+        <v>949.9313533763564</v>
       </c>
       <c r="E20" t="n">
-        <v>979.215550933116</v>
+        <v>634.455941056416</v>
       </c>
       <c r="F20" t="n">
-        <v>638.5424864218123</v>
+        <v>293.7828765451123</v>
       </c>
       <c r="G20" t="n">
         <v>293.7828765451123</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5780,22 +5780,22 @@
         <v>3285.62799341457</v>
       </c>
       <c r="T20" t="n">
-        <v>3285.62799341457</v>
+        <v>3149.963086077096</v>
       </c>
       <c r="U20" t="n">
-        <v>3102.410356966711</v>
+        <v>2966.745449629236</v>
       </c>
       <c r="V20" t="n">
-        <v>2841.660309901444</v>
+        <v>2705.995402563969</v>
       </c>
       <c r="W20" t="n">
-        <v>2559.204494909634</v>
+        <v>2423.539587572159</v>
       </c>
       <c r="X20" t="n">
-        <v>2256.051576926858</v>
+        <v>2120.386669589383</v>
       </c>
       <c r="Y20" t="n">
-        <v>1936.22508522935</v>
+        <v>1800.560177891875</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,61 +5884,61 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>599.4237984936798</v>
+        <v>599.4237984936802</v>
       </c>
       <c r="C22" t="n">
-        <v>500.8004558440769</v>
+        <v>500.8004558440772</v>
       </c>
       <c r="D22" t="n">
-        <v>420.9966567100451</v>
+        <v>420.9966567100454</v>
       </c>
       <c r="E22" t="n">
-        <v>343.3964034059559</v>
+        <v>343.3964034059562</v>
       </c>
       <c r="F22" t="n">
-        <v>266.8192961863495</v>
+        <v>266.8192961863497</v>
       </c>
       <c r="G22" t="n">
-        <v>169.4292998393724</v>
+        <v>169.4292998393725</v>
       </c>
       <c r="H22" t="n">
-        <v>93.52495333553414</v>
+        <v>93.52495333553418</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>321.8536965635574</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>638.4134950120535</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>982.5705406116026</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1323.978917317467</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1623.308516237881</v>
+        <v>1623.308516237882</v>
       </c>
       <c r="P22" t="n">
-        <v>1855.91601667154</v>
+        <v>1855.916016671541</v>
       </c>
       <c r="Q22" t="n">
-        <v>1933.526312824055</v>
+        <v>1933.526312824056</v>
       </c>
       <c r="R22" t="n">
-        <v>1914.008695859887</v>
+        <v>1914.008695859888</v>
       </c>
       <c r="S22" t="n">
-        <v>1792.635651965017</v>
+        <v>1792.635651965018</v>
       </c>
       <c r="T22" t="n">
-        <v>1641.181876812847</v>
+        <v>1641.181876812848</v>
       </c>
       <c r="U22" t="n">
         <v>1422.391850216795</v>
@@ -5947,13 +5947,13 @@
         <v>1238.020202289212</v>
       </c>
       <c r="W22" t="n">
-        <v>1018.915872530555</v>
+        <v>1018.915872530556</v>
       </c>
       <c r="X22" t="n">
-        <v>861.2391619108417</v>
+        <v>861.2391619108422</v>
       </c>
       <c r="Y22" t="n">
-        <v>710.7594230456156</v>
+        <v>710.759423045616</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1889.395953756622</v>
+        <v>1889.395953756621</v>
       </c>
       <c r="C23" t="n">
-        <v>1590.746277094514</v>
+        <v>1590.746277094513</v>
       </c>
       <c r="D23" t="n">
-        <v>1302.793418766068</v>
+        <v>1302.793418766067</v>
       </c>
       <c r="E23" t="n">
-        <v>987.3180064461276</v>
+        <v>987.3180064461262</v>
       </c>
       <c r="F23" t="n">
-        <v>646.6449419348232</v>
+        <v>646.6449419348228</v>
       </c>
       <c r="G23" t="n">
-        <v>301.8853320581235</v>
+        <v>301.8853320581237</v>
       </c>
       <c r="H23" t="n">
         <v>74.6145719451947</v>
@@ -5987,22 +5987,22 @@
         <v>74.6145719451947</v>
       </c>
       <c r="J23" t="n">
-        <v>263.4937029042201</v>
+        <v>341.9333019520063</v>
       </c>
       <c r="K23" t="n">
-        <v>597.3130765940666</v>
+        <v>675.7526756418526</v>
       </c>
       <c r="L23" t="n">
-        <v>1445.367609980028</v>
+        <v>1126.786888890261</v>
       </c>
       <c r="M23" t="n">
-        <v>1978.899514651953</v>
+        <v>1660.318793562186</v>
       </c>
       <c r="N23" t="n">
-        <v>2525.678331710735</v>
+        <v>2207.097610620968</v>
       </c>
       <c r="O23" t="n">
-        <v>3028.650802590072</v>
+        <v>2710.070081500305</v>
       </c>
       <c r="P23" t="n">
         <v>3423.42516894725</v>
@@ -6023,16 +6023,16 @@
         <v>3371.8682252798</v>
       </c>
       <c r="V23" t="n">
-        <v>3111.118178214534</v>
+        <v>3111.118178214533</v>
       </c>
       <c r="W23" t="n">
-        <v>2828.662363222724</v>
+        <v>2828.662363222723</v>
       </c>
       <c r="X23" t="n">
-        <v>2525.509445239948</v>
+        <v>2525.509445239947</v>
       </c>
       <c r="Y23" t="n">
-        <v>2205.68295354244</v>
+        <v>2205.682953542439</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>949.64630999412</v>
+        <v>949.6463099941191</v>
       </c>
       <c r="C24" t="n">
-        <v>775.193280712993</v>
+        <v>775.1932807129921</v>
       </c>
       <c r="D24" t="n">
-        <v>626.2588710517417</v>
+        <v>626.2588710517408</v>
       </c>
       <c r="E24" t="n">
-        <v>467.0214160462862</v>
+        <v>467.0214160462853</v>
       </c>
       <c r="F24" t="n">
-        <v>320.4868580731712</v>
+        <v>320.4868580731703</v>
       </c>
       <c r="G24" t="n">
-        <v>184.1237579057893</v>
+        <v>184.1237579057884</v>
       </c>
       <c r="H24" t="n">
-        <v>93.62186354365684</v>
+        <v>93.62186354365592</v>
       </c>
       <c r="I24" t="n">
         <v>74.6145719451947</v>
@@ -6069,49 +6069,49 @@
         <v>168.291841435812</v>
       </c>
       <c r="K24" t="n">
-        <v>406.5560404161592</v>
+        <v>406.5560404161591</v>
       </c>
       <c r="L24" t="n">
-        <v>773.2542007288246</v>
+        <v>773.2542007288243</v>
       </c>
       <c r="M24" t="n">
-        <v>1220.530525951141</v>
+        <v>1220.53052595114</v>
       </c>
       <c r="N24" t="n">
         <v>1694.053569505595</v>
       </c>
       <c r="O24" t="n">
-        <v>2105.01484892365</v>
+        <v>2105.014848923649</v>
       </c>
       <c r="P24" t="n">
-        <v>2415.514440399753</v>
+        <v>2415.514440399752</v>
       </c>
       <c r="Q24" t="n">
-        <v>2573.155998046353</v>
+        <v>2573.155998046352</v>
       </c>
       <c r="R24" t="n">
-        <v>2573.011644638868</v>
+        <v>2573.011644638867</v>
       </c>
       <c r="S24" t="n">
-        <v>2443.573758132348</v>
+        <v>2443.573758132347</v>
       </c>
       <c r="T24" t="n">
         <v>2250.930757810203</v>
       </c>
       <c r="U24" t="n">
-        <v>2022.862910944619</v>
+        <v>2022.862910944618</v>
       </c>
       <c r="V24" t="n">
-        <v>1787.710802712876</v>
+        <v>1787.710802712875</v>
       </c>
       <c r="W24" t="n">
-        <v>1533.473445984675</v>
+        <v>1533.473445984674</v>
       </c>
       <c r="X24" t="n">
-        <v>1325.621945779142</v>
+        <v>1325.621945779141</v>
       </c>
       <c r="Y24" t="n">
-        <v>1117.861647014188</v>
+        <v>1117.861647014187</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>607.526254006691</v>
+        <v>607.5262540066916</v>
       </c>
       <c r="C25" t="n">
-        <v>508.9029113570881</v>
+        <v>508.9029113570886</v>
       </c>
       <c r="D25" t="n">
-        <v>429.0991122230564</v>
+        <v>429.0991122230567</v>
       </c>
       <c r="E25" t="n">
-        <v>351.4988589189672</v>
+        <v>351.4988589189675</v>
       </c>
       <c r="F25" t="n">
-        <v>274.9217516993608</v>
+        <v>274.921751699361</v>
       </c>
       <c r="G25" t="n">
-        <v>177.5317553523837</v>
+        <v>177.5317553523838</v>
       </c>
       <c r="H25" t="n">
-        <v>101.6274088485454</v>
+        <v>101.6274088485455</v>
       </c>
       <c r="I25" t="n">
         <v>74.6145719451947</v>
       </c>
       <c r="J25" t="n">
-        <v>119.7372043921303</v>
+        <v>119.7372043921302</v>
       </c>
       <c r="K25" t="n">
-        <v>323.7243873410066</v>
+        <v>323.7243873410065</v>
       </c>
       <c r="L25" t="n">
-        <v>640.2841857895028</v>
+        <v>640.2841857895027</v>
       </c>
       <c r="M25" t="n">
-        <v>984.4412313890518</v>
+        <v>990.6729961246156</v>
       </c>
       <c r="N25" t="n">
-        <v>1332.081372830478</v>
+        <v>1332.08137283048</v>
       </c>
       <c r="O25" t="n">
-        <v>1631.410971750892</v>
+        <v>1631.410971750894</v>
       </c>
       <c r="P25" t="n">
-        <v>1864.018472184551</v>
+        <v>1864.018472184553</v>
       </c>
       <c r="Q25" t="n">
-        <v>1941.628768337066</v>
+        <v>1941.628768337067</v>
       </c>
       <c r="R25" t="n">
-        <v>1922.111151372898</v>
+        <v>1922.111151372899</v>
       </c>
       <c r="S25" t="n">
-        <v>1800.738107478028</v>
+        <v>1800.738107478029</v>
       </c>
       <c r="T25" t="n">
-        <v>1649.284332325858</v>
+        <v>1649.284332325859</v>
       </c>
       <c r="U25" t="n">
-        <v>1430.494305729806</v>
+        <v>1430.494305729807</v>
       </c>
       <c r="V25" t="n">
-        <v>1246.122657802223</v>
+        <v>1246.122657802224</v>
       </c>
       <c r="W25" t="n">
-        <v>1027.018328043566</v>
+        <v>1027.018328043567</v>
       </c>
       <c r="X25" t="n">
-        <v>869.341617423853</v>
+        <v>869.3416174238536</v>
       </c>
       <c r="Y25" t="n">
-        <v>718.8618785586268</v>
+        <v>718.8618785586274</v>
       </c>
     </row>
     <row r="26">
@@ -6212,52 +6212,52 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467794</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>347.646591081275</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>1002.369923216575</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L26" t="n">
-        <v>1453.404136464983</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M26" t="n">
-        <v>1986.936041136908</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N26" t="n">
-        <v>2533.71485819569</v>
+        <v>2623.499963990482</v>
       </c>
       <c r="O26" t="n">
-        <v>3036.687329075027</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468334</v>
@@ -6266,10 +6266,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
@@ -6391,7 +6391,7 @@
         <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6400,25 +6400,25 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467806</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557147</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455613</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M29" t="n">
-        <v>1986.936041136908</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N29" t="n">
-        <v>2533.71485819569</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O29" t="n">
-        <v>3036.687329075027</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P29" t="n">
         <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
         <v>779.7865456803188</v>
@@ -6558,7 +6558,7 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6652,13 +6652,13 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
@@ -6680,55 +6680,55 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>907.466041901396</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
-        <v>1771.984857554751</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>2305.516762226675</v>
+        <v>1863.465327102306</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285458</v>
+        <v>2410.244144161088</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
@@ -6740,10 +6740,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6774,16 +6774,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6853,7 +6853,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
@@ -6862,10 +6862,10 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982164</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308443</v>
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464978</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6947,25 +6947,25 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515855</v>
@@ -6977,10 +6977,10 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7032,34 +7032,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>552.405078696442</v>
+        <v>500.9308303909357</v>
       </c>
       <c r="C37" t="n">
-        <v>430.6660820368726</v>
+        <v>430.6660820368722</v>
       </c>
       <c r="D37" t="n">
-        <v>379.2208771983802</v>
+        <v>379.2208771983799</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159871</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F37" t="n">
-        <v>183.08927069192</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>1744.449641246691</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1621.35446039006</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U37" t="n">
-        <v>1430.923028089547</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V37" t="n">
-        <v>1274.909974457503</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W37" t="n">
-        <v>985.4928044205426</v>
+        <v>934.0185561150361</v>
       </c>
       <c r="X37" t="n">
-        <v>856.1746880963685</v>
+        <v>804.7004397908621</v>
       </c>
       <c r="Y37" t="n">
-        <v>635.3821089528384</v>
+        <v>583.907860647332</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7172,10 +7172,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7205,19 +7205,19 @@
         <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7242,28 +7242,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>651.0765132702857</v>
+        <v>453.7336441225985</v>
       </c>
       <c r="C40" t="n">
-        <v>527.991759218527</v>
+        <v>383.468895768535</v>
       </c>
       <c r="D40" t="n">
-        <v>476.5465543800347</v>
+        <v>332.0236909300427</v>
       </c>
       <c r="E40" t="n">
-        <v>328.6334607976416</v>
+        <v>282.7820319214931</v>
       </c>
       <c r="F40" t="n">
-        <v>280.4149478735746</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>211.3835458221369</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,16 +7351,16 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1522.683025816217</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U40" t="n">
         <v>1332.251593515703</v>
@@ -7369,13 +7369,13 @@
         <v>1176.23853988366</v>
       </c>
       <c r="W40" t="n">
-        <v>985.4928044205427</v>
+        <v>985.4928044205424</v>
       </c>
       <c r="X40" t="n">
-        <v>856.1746880963688</v>
+        <v>757.503253522525</v>
       </c>
       <c r="Y40" t="n">
-        <v>734.053543526682</v>
+        <v>635.3821089528383</v>
       </c>
     </row>
     <row r="41">
@@ -7394,25 +7394,25 @@
         <v>1257.791351792101</v>
       </c>
       <c r="E41" t="n">
-        <v>951.5408423373992</v>
+        <v>951.540842337399</v>
       </c>
       <c r="F41" t="n">
-        <v>620.0926806913344</v>
+        <v>620.0926806913341</v>
       </c>
       <c r="G41" t="n">
-        <v>284.5579736798735</v>
+        <v>284.5579736798736</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7421,37 +7421,37 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3294.852896279808</v>
+        <v>3294.852896279807</v>
       </c>
       <c r="T41" t="n">
-        <v>3168.412891807573</v>
+        <v>3168.412891807572</v>
       </c>
       <c r="U41" t="n">
-        <v>2994.420158224952</v>
+        <v>2994.420158224951</v>
       </c>
       <c r="V41" t="n">
-        <v>2742.895014024924</v>
+        <v>2742.895014024923</v>
       </c>
       <c r="W41" t="n">
-        <v>2737.535781922563</v>
+        <v>2469.664101898351</v>
       </c>
       <c r="X41" t="n">
-        <v>2443.607766805026</v>
+        <v>2175.736086780814</v>
       </c>
       <c r="Y41" t="n">
         <v>2133.006177972757</v>
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7506,31 +7506,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
         <v>1109.759191501176</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>534.8494784370083</v>
+        <v>534.849478437009</v>
       </c>
       <c r="C43" t="n">
-        <v>445.4510386526441</v>
+        <v>445.4510386526447</v>
       </c>
       <c r="D43" t="n">
-        <v>374.8721423838512</v>
+        <v>374.8721423838516</v>
       </c>
       <c r="E43" t="n">
-        <v>306.4967919450008</v>
+        <v>306.4967919450011</v>
       </c>
       <c r="F43" t="n">
-        <v>239.1445875906331</v>
+        <v>239.1445875906334</v>
       </c>
       <c r="G43" t="n">
-        <v>150.9794941088948</v>
+        <v>150.979494108895</v>
       </c>
       <c r="H43" t="n">
-        <v>84.30005047029533</v>
+        <v>84.30005047029542</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
         <v>1917.001833989563</v>
       </c>
       <c r="S43" t="n">
-        <v>1725.31594981639</v>
+        <v>1804.853692959932</v>
       </c>
       <c r="T43" t="n">
-        <v>1583.087077529459</v>
+        <v>1662.624820673</v>
       </c>
       <c r="U43" t="n">
-        <v>1373.521953798645</v>
+        <v>1373.521953798644</v>
       </c>
       <c r="V43" t="n">
-        <v>1198.375208736301</v>
+        <v>1198.3752087363</v>
       </c>
       <c r="W43" t="n">
-        <v>926.6668438781671</v>
+        <v>988.4957818428818</v>
       </c>
       <c r="X43" t="n">
-        <v>778.2150361236926</v>
+        <v>840.0439740884071</v>
       </c>
       <c r="Y43" t="n">
-        <v>636.9602001237052</v>
+        <v>698.7891380884197</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1825.944081052177</v>
+        <v>1558.072401027966</v>
       </c>
       <c r="C44" t="n">
-        <v>1536.519307255308</v>
+        <v>1268.647627231097</v>
       </c>
       <c r="D44" t="n">
-        <v>1257.791351792101</v>
+        <v>989.9196717678891</v>
       </c>
       <c r="E44" t="n">
-        <v>951.5408423373992</v>
+        <v>951.5408423373993</v>
       </c>
       <c r="F44" t="n">
         <v>620.0926806913344</v>
       </c>
       <c r="G44" t="n">
-        <v>284.5579736798735</v>
+        <v>284.5579736798736</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3294.852896279809</v>
+        <v>3294.852896279807</v>
       </c>
       <c r="T44" t="n">
-        <v>3168.412891807573</v>
+        <v>3168.412891807572</v>
       </c>
       <c r="U44" t="n">
-        <v>2994.420158224953</v>
+        <v>2994.420158224951</v>
       </c>
       <c r="V44" t="n">
-        <v>2742.895014024924</v>
+        <v>2742.895014024923</v>
       </c>
       <c r="W44" t="n">
-        <v>2469.664101898353</v>
+        <v>2469.664101898351</v>
       </c>
       <c r="X44" t="n">
-        <v>2443.607766805026</v>
+        <v>2175.736086780814</v>
       </c>
       <c r="Y44" t="n">
-        <v>2133.006177972757</v>
+        <v>1865.134497948545</v>
       </c>
     </row>
     <row r="45">
@@ -7716,28 +7716,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>676.2161595452667</v>
+        <v>534.849478437009</v>
       </c>
       <c r="C46" t="n">
-        <v>586.8177197609025</v>
+        <v>445.4510386526447</v>
       </c>
       <c r="D46" t="n">
-        <v>516.2388234921095</v>
+        <v>374.8721423838516</v>
       </c>
       <c r="E46" t="n">
-        <v>368.3257299097164</v>
+        <v>306.4967919450011</v>
       </c>
       <c r="F46" t="n">
-        <v>239.1445875906331</v>
+        <v>239.1445875906334</v>
       </c>
       <c r="G46" t="n">
-        <v>150.9794941088948</v>
+        <v>150.979494108895</v>
       </c>
       <c r="H46" t="n">
-        <v>84.30005047029533</v>
+        <v>84.30005047029542</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,7 +7825,7 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
         <v>1917.001833989563</v>
@@ -7834,22 +7834,22 @@
         <v>1804.853692959932</v>
       </c>
       <c r="T46" t="n">
-        <v>1662.624820673001</v>
+        <v>1583.087077529458</v>
       </c>
       <c r="U46" t="n">
-        <v>1453.059696942188</v>
+        <v>1311.693015833931</v>
       </c>
       <c r="V46" t="n">
-        <v>1277.912951879844</v>
+        <v>1136.546270771586</v>
       </c>
       <c r="W46" t="n">
-        <v>1068.033524986426</v>
+        <v>926.6668438781683</v>
       </c>
       <c r="X46" t="n">
-        <v>919.581717231951</v>
+        <v>778.2150361236935</v>
       </c>
       <c r="Y46" t="n">
-        <v>778.3268812319636</v>
+        <v>636.960200123706</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>160.0183140005888</v>
       </c>
       <c r="K8" t="n">
-        <v>188.5749436868861</v>
+        <v>188.574943686886</v>
       </c>
       <c r="L8" t="n">
-        <v>196.6693856535364</v>
+        <v>196.6693856535362</v>
       </c>
       <c r="M8" t="n">
-        <v>186.8432549216646</v>
+        <v>186.8432549216645</v>
       </c>
       <c r="N8" t="n">
-        <v>185.2061616210345</v>
+        <v>185.2061616210344</v>
       </c>
       <c r="O8" t="n">
-        <v>188.3548874463233</v>
+        <v>188.3548874463232</v>
       </c>
       <c r="P8" t="n">
-        <v>195.6060345082295</v>
+        <v>195.6060345082293</v>
       </c>
       <c r="Q8" t="n">
-        <v>195.551325699129</v>
+        <v>195.5513256991289</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,25 +8529,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>114.3137378027395</v>
+        <v>114.3137378027394</v>
       </c>
       <c r="K9" t="n">
-        <v>116.4361181302381</v>
+        <v>116.436118130238</v>
       </c>
       <c r="L9" t="n">
-        <v>109.772284324291</v>
+        <v>109.7722843242909</v>
       </c>
       <c r="M9" t="n">
-        <v>108.5466860890915</v>
+        <v>108.5466860890914</v>
       </c>
       <c r="N9" t="n">
-        <v>96.8654070955416</v>
+        <v>96.86540709554149</v>
       </c>
       <c r="O9" t="n">
-        <v>111.0571608735118</v>
+        <v>111.0571608735117</v>
       </c>
       <c r="P9" t="n">
-        <v>108.6615123139327</v>
+        <v>108.6615123139326</v>
       </c>
       <c r="Q9" t="n">
         <v>123.0607740630078</v>
@@ -8617,16 +8617,16 @@
         <v>118.3622673036571</v>
       </c>
       <c r="M10" t="n">
-        <v>121.5052202934268</v>
+        <v>121.5052202934267</v>
       </c>
       <c r="N10" t="n">
-        <v>110.679202877877</v>
+        <v>110.6792028778769</v>
       </c>
       <c r="O10" t="n">
         <v>122.7484294397704</v>
       </c>
       <c r="P10" t="n">
-        <v>124.2870031296332</v>
+        <v>124.2870031296331</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>79.23191823008705</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>401.0306264015684</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.06581410364015e-13</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>78.40458911672766</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>165.3902622431559</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>402.5500016878917</v>
+        <v>231.1066821161379</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>306.6874953089243</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>108.7354935515749</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>180.3258212657367</v>
+        <v>323.6959619980815</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>365.2991159687854</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>96.5139884056385</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.61083201524985</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>209.418242185976</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>328.1541709055431</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>25.51948462477257</v>
       </c>
       <c r="H13" t="n">
-        <v>26.56685623213511</v>
+        <v>103.1780851413948</v>
       </c>
       <c r="I13" t="n">
-        <v>54.77549063691212</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.35522289712135</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>323.6959619980815</v>
       </c>
       <c r="D14" t="n">
-        <v>313.106111847757</v>
+        <v>313.1061118477569</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>162.3410403666942</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.397875213567485</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>307.6640389444871</v>
+        <v>148.7069925266659</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>24.85345151616148</v>
       </c>
       <c r="E16" t="n">
-        <v>25.51948462477399</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>103.8441182500052</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>103.1780851413948</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>313.1241297879596</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>51.738103158245</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>341.3120137779326</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>79.92598714821645</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23969,10 +23969,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>258.7418586720777</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>51.73810315824477</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>341.3120137779326</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>134.3082582640992</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -25688,13 +25688,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>265.1929632239679</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>265.1929632239695</v>
       </c>
     </row>
     <row r="42">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>265.1929632239697</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>265.1929632239681</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>786511.0484695565</v>
+        <v>786511.0484695566</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821697.7343703144</v>
+        <v>821697.7343703143</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>869727.7123419194</v>
+        <v>869727.7123419195</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>882595.7720635402</v>
+        <v>882595.7720635403</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>882595.7720635401</v>
+        <v>882595.7720635402</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>882595.7720635401</v>
+        <v>882595.7720635402</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>832129.5995416935</v>
+        <v>832129.5995416933</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593975.3455698527</v>
+        <v>593975.3455698524</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698524</v>
+        <v>593975.3455698525</v>
       </c>
       <c r="D2" t="n">
-        <v>593989.643303242</v>
+        <v>593989.6433032422</v>
       </c>
       <c r="E2" t="n">
-        <v>547684.2172173169</v>
+        <v>547684.2172173166</v>
       </c>
       <c r="F2" t="n">
-        <v>547684.2172173166</v>
+        <v>547684.2172173165</v>
       </c>
       <c r="G2" t="n">
-        <v>572572.3609032179</v>
+        <v>572572.360903218</v>
       </c>
       <c r="H2" t="n">
-        <v>572572.3609032179</v>
+        <v>572572.360903218</v>
       </c>
       <c r="I2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="J2" t="n">
         <v>595255.2831516055</v>
       </c>
       <c r="K2" t="n">
+        <v>595255.2831516053</v>
+      </c>
+      <c r="L2" t="n">
+        <v>595255.2831516049</v>
+      </c>
+      <c r="M2" t="n">
         <v>595255.2831516054</v>
       </c>
-      <c r="L2" t="n">
-        <v>595255.2831516051</v>
-      </c>
-      <c r="M2" t="n">
-        <v>595255.2831516051</v>
-      </c>
       <c r="N2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="O2" t="n">
-        <v>579950.9972439503</v>
+        <v>579950.99724395</v>
       </c>
       <c r="P2" t="n">
         <v>579950.9972439504</v>
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>52779.22001282234</v>
+        <v>52779.22001282252</v>
       </c>
       <c r="E3" t="n">
         <v>1107517.348594705</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>22426.22568207596</v>
+        <v>22426.22568207586</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26932.66340594338</v>
+        <v>26932.66340594341</v>
       </c>
       <c r="J3" t="n">
-        <v>36518.24439390829</v>
+        <v>36518.24439390842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22426.22568207598</v>
+        <v>22426.22568207587</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927243</v>
+        <v>202168.0999927242</v>
       </c>
       <c r="N3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>433135.7820415561</v>
       </c>
       <c r="E4" t="n">
-        <v>54835.51151607365</v>
+        <v>54835.51151607369</v>
       </c>
       <c r="F4" t="n">
-        <v>54835.51151607363</v>
+        <v>54835.51151607372</v>
       </c>
       <c r="G4" t="n">
-        <v>74328.37221859361</v>
+        <v>74328.37221859358</v>
       </c>
       <c r="H4" t="n">
-        <v>74328.37221859361</v>
+        <v>74328.37221859355</v>
       </c>
       <c r="I4" t="n">
-        <v>90337.27420616837</v>
+        <v>90337.27420616841</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.95519699578</v>
+        <v>88960.95519699593</v>
       </c>
       <c r="K4" t="n">
-        <v>88960.95519699575</v>
+        <v>88960.95519699587</v>
       </c>
       <c r="L4" t="n">
-        <v>88960.95519699581</v>
+        <v>88960.95519699587</v>
       </c>
       <c r="M4" t="n">
-        <v>92183.89891818166</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="N4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="O4" t="n">
         <v>80135.37131656561</v>
       </c>
       <c r="P4" t="n">
-        <v>80135.37131656561</v>
+        <v>80135.37131656558</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34971.09391331707</v>
+        <v>34971.09391331708</v>
       </c>
       <c r="E5" t="n">
         <v>77801.67147047342</v>
@@ -26488,7 +26488,7 @@
         <v>80158.35942905647</v>
       </c>
       <c r="I5" t="n">
-        <v>86316.22561894504</v>
+        <v>86316.22561894503</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26500,16 +26500,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>80926.13250444445</v>
+        <v>80926.13250444442</v>
       </c>
       <c r="P5" t="n">
-        <v>80926.13250444445</v>
+        <v>80926.13250444442</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>107947.7550208876</v>
+        <v>107943.3414430191</v>
       </c>
       <c r="C6" t="n">
-        <v>107947.7550208872</v>
+        <v>107943.3414430192</v>
       </c>
       <c r="D6" t="n">
-        <v>73103.54733554652</v>
+        <v>73099.18306020727</v>
       </c>
       <c r="E6" t="n">
-        <v>-692470.3143639355</v>
+        <v>-692634.3525223297</v>
       </c>
       <c r="F6" t="n">
-        <v>415047.0342307696</v>
+        <v>414882.9960723753</v>
       </c>
       <c r="G6" t="n">
-        <v>395659.4035734919</v>
+        <v>395581.1866002218</v>
       </c>
       <c r="H6" t="n">
-        <v>418085.6292555679</v>
+        <v>418007.4122822977</v>
       </c>
       <c r="I6" t="n">
-        <v>391669.119920548</v>
+        <v>391669.1199205482</v>
       </c>
       <c r="J6" t="n">
-        <v>380398.1418858953</v>
+        <v>380398.141885895</v>
       </c>
       <c r="K6" t="n">
-        <v>416916.3862798035</v>
+        <v>416916.3862798033</v>
       </c>
       <c r="L6" t="n">
-        <v>394490.1605977272</v>
+        <v>394490.1605977271</v>
       </c>
       <c r="M6" t="n">
-        <v>218384.6869344493</v>
+        <v>218384.6869344497</v>
       </c>
       <c r="N6" t="n">
-        <v>420552.786927174</v>
+        <v>420552.7869271738</v>
       </c>
       <c r="O6" t="n">
-        <v>418889.4934229402</v>
+        <v>418836.7200232585</v>
       </c>
       <c r="P6" t="n">
-        <v>418889.4934229403</v>
+        <v>418836.7200232588</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="F2" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="G2" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="H2" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="I2" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O2" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="P2" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>61.62816116133359</v>
+        <v>61.6281611613338</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26762,7 +26762,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26799,37 +26799,37 @@
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
         <v>932.6821493149338</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>28.03278210259496</v>
+        <v>28.03278210259482</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,19 +26929,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18.94235451599764</v>
+        <v>18.94235451599776</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.03278210259498</v>
+        <v>28.03278210259484</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951231</v>
+        <v>50.70958360951239</v>
       </c>
       <c r="N2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>61.62816116133359</v>
+        <v>61.6281611613338</v>
       </c>
       <c r="E3" t="n">
         <v>1028.148539431965</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>101.2806939126409</v>
+        <v>101.280693912641</v>
       </c>
       <c r="J4" t="n">
-        <v>81.65431189368064</v>
+        <v>81.65431189368076</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959712</v>
+        <v>648.4664495959707</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>28.03278210259496</v>
+        <v>28.03278210259482</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.94235451599764</v>
+        <v>18.94235451599776</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>134.3063039570266</v>
+        <v>134.3063039570265</v>
       </c>
       <c r="S8" t="n">
-        <v>203.3744345210639</v>
+        <v>203.3744345210638</v>
       </c>
       <c r="T8" t="n">
         <v>222.0113178033927</v>
@@ -27950,7 +27950,7 @@
         <v>110.9552063980318</v>
       </c>
       <c r="I9" t="n">
-        <v>84.83266053899555</v>
+        <v>84.83266053899554</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>91.92756764887108</v>
+        <v>91.92756764887105</v>
       </c>
       <c r="S9" t="n">
         <v>169.2209516461185</v>
@@ -28032,10 +28032,10 @@
         <v>152.1084100564109</v>
       </c>
       <c r="J10" t="n">
-        <v>85.50209471746473</v>
+        <v>85.5020947174647</v>
       </c>
       <c r="K10" t="n">
-        <v>9.357886913721492</v>
+        <v>9.357886913721448</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>76.85619091633302</v>
+        <v>76.85619091633298</v>
       </c>
       <c r="R10" t="n">
         <v>172.2964588344817</v>
       </c>
       <c r="S10" t="n">
-        <v>222.0798573001481</v>
+        <v>222.079857300148</v>
       </c>
       <c r="T10" t="n">
         <v>227.470749498022</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="C11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="D11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="E11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="F11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="G11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="H11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="T11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="U11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="V11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="W11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="X11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="Y11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="C13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="D13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="E13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="F13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="G13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="H13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="I13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="K13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="L13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="M13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="N13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="O13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="P13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="R13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="S13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="T13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="U13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="V13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="W13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="X13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292601</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="C14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="D14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="E14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="F14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="G14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="H14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="T14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="U14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="V14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="W14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="X14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="C16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="D16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="E16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="F16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="G16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="H16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="I16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="J16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="K16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="L16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="M16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="N16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="O16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="P16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="R16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="S16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="T16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="U16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="V16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="W16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="X16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292604</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="C17" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="D17" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="E17" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="F17" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="G17" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="H17" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="T17" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="U17" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="V17" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="W17" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="X17" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="Y17" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="C19" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="D19" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="E19" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="F19" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="G19" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="H19" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="I19" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.294711854103269</v>
+        <v>6.294711854103724</v>
       </c>
       <c r="R19" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="S19" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="T19" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="U19" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="V19" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="W19" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="X19" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552086</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="C20" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="D20" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="E20" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="F20" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="G20" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="H20" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="T20" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="U20" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="V20" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="W20" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="X20" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="Y20" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
     </row>
     <row r="21">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="C22" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="D22" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="E22" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="F22" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="G22" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="H22" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="I22" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>6.294711854103099</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>6.29471185410415</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="S22" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="T22" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="U22" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="V22" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="W22" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="X22" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="C23" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="D23" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="E23" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="F23" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="G23" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="H23" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="T23" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="U23" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="V23" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="W23" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="X23" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="Y23" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="C25" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="D25" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="E25" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="F25" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="G25" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="H25" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="I25" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29226,10 +29226,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>6.294711854105003</v>
       </c>
       <c r="N25" t="n">
-        <v>6.2947118541029</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="S25" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="T25" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="U25" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="V25" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="W25" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="X25" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.6097118755209</v>
+        <v>69.60971187552084</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29934,13 +29934,13 @@
         <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859182</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859199</v>
       </c>
       <c r="O34" t="n">
         <v>46.97513661859259</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C37" t="n">
-        <v>46.72521440565407</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30192,22 +30192,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810489</v>
+        <v>46.72521440565373</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>45.3929145873868</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810494</v>
+        <v>46.72521440565379</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30432,22 +30432,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="C41" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="D41" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="E41" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="F41" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="G41" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="H41" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="T41" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="U41" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="V41" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="W41" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="X41" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="Y41" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>78.7423657121073</v>
+        <v>17.53171712704071</v>
       </c>
       <c r="C43" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="D43" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="E43" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="F43" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="G43" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="H43" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="I43" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="T43" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="U43" t="n">
-        <v>78.7423657121073</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="W43" t="n">
-        <v>17.53171712703858</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="X43" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="Y43" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="C44" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="D44" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="E44" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="F44" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="G44" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="H44" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="T44" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="U44" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="V44" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="W44" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="X44" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="Y44" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="C46" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="D46" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="F46" t="n">
-        <v>17.5317171270388</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="G46" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="H46" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="I46" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="S46" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="T46" t="n">
-        <v>78.7423657121073</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>78.7423657121073</v>
+        <v>17.53171712704079</v>
       </c>
       <c r="V46" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="W46" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="X46" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
       <c r="Y46" t="n">
-        <v>78.7423657121073</v>
+        <v>78.7423657121072</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2477514016536022</v>
+        <v>0.247751401653603</v>
       </c>
       <c r="H8" t="n">
-        <v>2.537284042184954</v>
+        <v>2.537284042184963</v>
       </c>
       <c r="I8" t="n">
-        <v>9.551435912250508</v>
+        <v>9.55143591225054</v>
       </c>
       <c r="J8" t="n">
-        <v>21.02759052609744</v>
+        <v>21.02759052609751</v>
       </c>
       <c r="K8" t="n">
-        <v>31.51490735809442</v>
+        <v>31.51490735809453</v>
       </c>
       <c r="L8" t="n">
-        <v>39.09702931645086</v>
+        <v>39.09702931645099</v>
       </c>
       <c r="M8" t="n">
-        <v>43.5029783056081</v>
+        <v>43.50297830560825</v>
       </c>
       <c r="N8" t="n">
-        <v>44.20690197555641</v>
+        <v>44.20690197555655</v>
       </c>
       <c r="O8" t="n">
-        <v>41.7433239753634</v>
+        <v>41.74332397536354</v>
       </c>
       <c r="P8" t="n">
-        <v>35.62696124704009</v>
+        <v>35.62696124704021</v>
       </c>
       <c r="Q8" t="n">
-        <v>26.75436417532045</v>
+        <v>26.75436417532054</v>
       </c>
       <c r="R8" t="n">
-        <v>15.5628139841231</v>
+        <v>15.56281398412315</v>
       </c>
       <c r="S8" t="n">
-        <v>5.645635065181465</v>
+        <v>5.645635065181485</v>
       </c>
       <c r="T8" t="n">
-        <v>1.084531760738644</v>
+        <v>1.084531760738648</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01982011213228817</v>
+        <v>0.01982011213228824</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1325586862715477</v>
+        <v>0.1325586862715482</v>
       </c>
       <c r="H9" t="n">
-        <v>1.280237838464685</v>
+        <v>1.280237838464689</v>
       </c>
       <c r="I9" t="n">
-        <v>4.563972312419517</v>
+        <v>4.563972312419532</v>
       </c>
       <c r="J9" t="n">
-        <v>12.52388886392724</v>
+        <v>12.52388886392728</v>
       </c>
       <c r="K9" t="n">
-        <v>21.40532084412093</v>
+        <v>21.40532084412101</v>
       </c>
       <c r="L9" t="n">
-        <v>28.7820954555832</v>
+        <v>28.7820954555833</v>
       </c>
       <c r="M9" t="n">
-        <v>33.5873478329268</v>
+        <v>33.58734783292692</v>
       </c>
       <c r="N9" t="n">
-        <v>34.47630498779171</v>
+        <v>34.47630498779182</v>
       </c>
       <c r="O9" t="n">
-        <v>31.53908357093267</v>
+        <v>31.53908357093278</v>
       </c>
       <c r="P9" t="n">
-        <v>25.31289510039757</v>
+        <v>25.31289510039765</v>
       </c>
       <c r="Q9" t="n">
-        <v>16.92100002301371</v>
+        <v>16.92100002301376</v>
       </c>
       <c r="R9" t="n">
-        <v>8.230266503772063</v>
+        <v>8.230266503772091</v>
       </c>
       <c r="S9" t="n">
-        <v>2.462219457719317</v>
+        <v>2.462219457719325</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5343045293138259</v>
+        <v>0.5343045293138278</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008720966202075511</v>
+        <v>0.008720966202075542</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1111327496351917</v>
+        <v>0.1111327496351921</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9880711740292506</v>
+        <v>0.988071174029254</v>
       </c>
       <c r="I10" t="n">
-        <v>3.342064870847402</v>
+        <v>3.342064870847414</v>
       </c>
       <c r="J10" t="n">
-        <v>7.857085399208053</v>
+        <v>7.85708539920808</v>
       </c>
       <c r="K10" t="n">
-        <v>12.91160491216136</v>
+        <v>12.9116049121614</v>
       </c>
       <c r="L10" t="n">
-        <v>16.52240897758114</v>
+        <v>16.5224089775812</v>
       </c>
       <c r="M10" t="n">
-        <v>17.42056365417827</v>
+        <v>17.42056365417833</v>
       </c>
       <c r="N10" t="n">
-        <v>17.00634158735621</v>
+        <v>17.00634158735627</v>
       </c>
       <c r="O10" t="n">
-        <v>15.70810901207238</v>
+        <v>15.70810901207243</v>
       </c>
       <c r="P10" t="n">
-        <v>13.44100091951445</v>
+        <v>13.4410009195145</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.30585233536137</v>
+        <v>9.305852335361404</v>
       </c>
       <c r="R10" t="n">
-        <v>4.996932542687801</v>
+        <v>4.996932542687818</v>
       </c>
       <c r="S10" t="n">
-        <v>1.936740736824204</v>
+        <v>1.93674073682421</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4748399302594553</v>
+        <v>0.474839930259457</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006061786343737737</v>
+        <v>0.006061786343737757</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.1553463859922</v>
+        <v>87.15534638599223</v>
       </c>
       <c r="K13" t="n">
         <v>247.6245893172456</v>
       </c>
       <c r="L13" t="n">
-        <v>361.3343019431241</v>
+        <v>361.3343019431242</v>
       </c>
       <c r="M13" t="n">
         <v>389.2103091664098</v>
       </c>
       <c r="N13" t="n">
-        <v>386.433875940466</v>
+        <v>386.4338759404661</v>
       </c>
       <c r="O13" t="n">
         <v>343.9300599955658</v>
@@ -35586,7 +35586,7 @@
         <v>276.5340009180364</v>
       </c>
       <c r="Q13" t="n">
-        <v>119.9711683108196</v>
+        <v>119.9711683108197</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.15534638599217</v>
+        <v>87.15534638599226</v>
       </c>
       <c r="K16" t="n">
-        <v>247.6245893172455</v>
+        <v>247.6245893172456</v>
       </c>
       <c r="L16" t="n">
-        <v>361.334301943124</v>
+        <v>361.3343019431242</v>
       </c>
       <c r="M16" t="n">
         <v>389.2103091664098</v>
       </c>
       <c r="N16" t="n">
-        <v>386.433875940466</v>
+        <v>386.4338759404661</v>
       </c>
       <c r="O16" t="n">
-        <v>343.9300599955657</v>
+        <v>343.9300599955658</v>
       </c>
       <c r="P16" t="n">
         <v>276.5340009180364</v>
       </c>
       <c r="Q16" t="n">
-        <v>119.9711683108196</v>
+        <v>119.9711683108197</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36060,7 +36060,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.68895039199693</v>
+        <v>84.68895039199738</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>212.3423713984227</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,7 +36291,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>308.6478420767439</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>270.0189191987996</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>856.6207407939006</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>353.9280912475888</v>
       </c>
       <c r="N25" t="n">
-        <v>351.151658021643</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>269.1915900854402</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>673.4432631313749</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597723</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>941.4711175181186</v>
+        <v>770.0277979463644</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>643.8787818643248</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>647.6566093818014</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887899</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.832082786132</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865553999</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
